--- a/Table2.xlsx
+++ b/Table2.xlsx
@@ -943,7 +943,7 @@
   <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1097,19 +1097,31 @@
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="D7" s="4">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4">
+        <v>8</v>
+      </c>
       <c r="J7" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K7" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="18.75">
@@ -1166,18 +1178,18 @@
         <v>4</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
         <v>6</v>
       </c>
       <c r="J9" s="20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" s="24">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
   </sheetData>
